--- a/data/financial_statements/soci/DLTR.xlsx
+++ b/data/financial_statements/soci/DLTR.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>2022-10-31</t>
+  </si>
+  <si>
+    <t>2022-07-31</t>
+  </si>
+  <si>
+    <t>2022-04-30</t>
+  </si>
+  <si>
+    <t>2022-01-31</t>
+  </si>
+  <si>
+    <t>2021-10-31</t>
+  </si>
+  <si>
+    <t>2021-07-31</t>
+  </si>
+  <si>
+    <t>2021-04-30</t>
+  </si>
+  <si>
+    <t>2021-01-31</t>
+  </si>
+  <si>
+    <t>2020-10-31</t>
+  </si>
+  <si>
+    <t>2020-07-31</t>
+  </si>
+  <si>
+    <t>2020-04-30</t>
+  </si>
+  <si>
+    <t>2020-01-31</t>
+  </si>
+  <si>
+    <t>2019-10-31</t>
+  </si>
+  <si>
+    <t>2019-07-31</t>
+  </si>
+  <si>
+    <t>2019-04-30</t>
+  </si>
+  <si>
+    <t>2019-01-31</t>
+  </si>
+  <si>
+    <t>2018-10-31</t>
+  </si>
+  <si>
+    <t>2018-07-31</t>
+  </si>
+  <si>
+    <t>2018-04-30</t>
+  </si>
+  <si>
+    <t>2018-01-31</t>
+  </si>
+  <si>
+    <t>2017-10-31</t>
+  </si>
+  <si>
+    <t>2017-07-31</t>
+  </si>
+  <si>
+    <t>2017-04-30</t>
+  </si>
+  <si>
+    <t>2017-01-31</t>
+  </si>
+  <si>
+    <t>2016-10-31</t>
+  </si>
+  <si>
+    <t>2016-07-31</t>
+  </si>
+  <si>
+    <t>2016-04-30</t>
+  </si>
+  <si>
+    <t>2016-01-31</t>
+  </si>
+  <si>
+    <t>2015-10-31</t>
+  </si>
+  <si>
+    <t>2015-07-31</t>
+  </si>
+  <si>
+    <t>2015-04-30</t>
+  </si>
+  <si>
+    <t>2015-01-31</t>
+  </si>
+  <si>
+    <t>2014-10-31</t>
+  </si>
+  <si>
+    <t>2014-07-31</t>
+  </si>
+  <si>
+    <t>2014-04-30</t>
+  </si>
+  <si>
+    <t>2014-01-31</t>
+  </si>
+  <si>
+    <t>2013-10-31</t>
+  </si>
+  <si>
+    <t>2013-07-31</t>
+  </si>
+  <si>
+    <t>2013-04-30</t>
+  </si>
+  <si>
+    <t>2013-01-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -122,9 +242,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -177,12 +294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -487,147 +601,147 @@
   <sheetData>
     <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44865</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44773</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44681</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44592</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44500</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44408</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44316</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44227</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44135</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44043</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43951</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43861</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43769</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43677</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43585</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43496</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43404</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43312</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43220</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43131</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43039</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42947</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42855</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42766</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42674</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42582</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42490</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42400</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42308</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42216</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42124</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42035</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41943</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41851</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41759</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41670</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41578</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41486</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41394</v>
-      </c>
-      <c r="AO1" s="2">
-        <v>41305</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:41">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
-        <v>6940000000</v>
+        <v>6939900000</v>
       </c>
       <c r="C2">
-        <v>6769000000</v>
+        <v>6768500000</v>
       </c>
       <c r="D2">
-        <v>6903000000</v>
+        <v>6902600000</v>
       </c>
       <c r="E2">
-        <v>7081000000</v>
+        <v>7080600000</v>
       </c>
       <c r="F2">
-        <v>6418000000</v>
+        <v>6417700000</v>
       </c>
       <c r="G2">
         <v>6343200000</v>
@@ -736,20 +850,20 @@
       </c>
     </row>
     <row r="3" spans="1:41">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
-        <v>0.0813</v>
+        <v>0.0814</v>
       </c>
       <c r="C3">
-        <v>0.06710000000000001</v>
+        <v>0.067</v>
       </c>
       <c r="D3">
         <v>0.0653</v>
       </c>
       <c r="E3">
-        <v>0.0463</v>
+        <v>0.0462</v>
       </c>
       <c r="F3">
         <v>0.039</v>
@@ -861,23 +975,23 @@
       </c>
     </row>
     <row r="4" spans="1:41">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
-        <v>4865000000</v>
+        <v>4865100000</v>
       </c>
       <c r="C4">
-        <v>4641000000</v>
+        <v>4640900000</v>
       </c>
       <c r="D4">
-        <v>4560000000</v>
+        <v>4559600000</v>
       </c>
       <c r="E4">
-        <v>4938000000</v>
+        <v>4940300000</v>
       </c>
       <c r="F4">
-        <v>4649000000</v>
+        <v>4651700000</v>
       </c>
       <c r="G4">
         <v>4479200000</v>
@@ -986,23 +1100,23 @@
       </c>
     </row>
     <row r="5" spans="1:41">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
-        <v>2075000000</v>
+        <v>2074800000</v>
       </c>
       <c r="C5">
-        <v>2128000000</v>
+        <v>2127600000</v>
       </c>
       <c r="D5">
         <v>2343000000</v>
       </c>
       <c r="E5">
-        <v>2143000000</v>
+        <v>2140300000</v>
       </c>
       <c r="F5">
-        <v>1769000000</v>
+        <v>1766000000</v>
       </c>
       <c r="G5">
         <v>1864000000</v>
@@ -1111,8 +1225,8 @@
       </c>
     </row>
     <row r="6" spans="1:41">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
         <v>1693500000</v>
@@ -1236,8 +1350,8 @@
       </c>
     </row>
     <row r="7" spans="1:41">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
         <v>381299800</v>
@@ -1361,8 +1475,8 @@
       </c>
     </row>
     <row r="8" spans="1:41">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
         <v>33000000</v>
@@ -1402,8 +1516,8 @@
       </c>
     </row>
     <row r="9" spans="1:41">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
         <v>32700000</v>
@@ -1527,23 +1641,23 @@
       </c>
     </row>
     <row r="10" spans="1:41">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>-32900000</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>-30700000</v>
       </c>
       <c r="D10">
         <v>-34000000</v>
       </c>
       <c r="E10">
-        <v>16000000</v>
+        <v>-79600000</v>
       </c>
       <c r="F10">
-        <v>12000000</v>
+        <v>-33600000</v>
       </c>
       <c r="G10">
         <v>-33000000</v>
@@ -1652,23 +1766,23 @@
       </c>
     </row>
     <row r="11" spans="1:41">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
-        <v>348000000</v>
+        <v>348400000</v>
       </c>
       <c r="C11">
-        <v>475000000</v>
+        <v>474700000</v>
       </c>
       <c r="D11">
-        <v>698000000</v>
+        <v>697500000</v>
       </c>
       <c r="E11">
-        <v>499000000</v>
+        <v>499199900</v>
       </c>
       <c r="F11">
-        <v>277000000</v>
+        <v>276900000</v>
       </c>
       <c r="G11">
         <v>369200000</v>
@@ -1777,23 +1891,23 @@
       </c>
     </row>
     <row r="12" spans="1:41">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
-        <v>82000000</v>
+        <v>81500000</v>
       </c>
       <c r="C12">
-        <v>115000000</v>
+        <v>114800000</v>
       </c>
       <c r="D12">
-        <v>161000000</v>
+        <v>161100000</v>
       </c>
       <c r="E12">
         <v>45000000</v>
       </c>
       <c r="F12">
-        <v>60000000</v>
+        <v>60100000</v>
       </c>
       <c r="G12">
         <v>86800000</v>
@@ -1902,8 +2016,8 @@
       </c>
     </row>
     <row r="13" spans="1:41">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
         <v>266900000</v>
@@ -2027,8 +2141,8 @@
       </c>
     </row>
     <row r="14" spans="1:41">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -2077,23 +2191,23 @@
       </c>
     </row>
     <row r="15" spans="1:41">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
-        <v>267000000</v>
+        <v>266900000</v>
       </c>
       <c r="C15">
-        <v>360000000</v>
+        <v>359900000</v>
       </c>
       <c r="D15">
-        <v>536000000</v>
+        <v>536400000</v>
       </c>
       <c r="E15">
-        <v>454000000</v>
+        <v>454200000</v>
       </c>
       <c r="F15">
-        <v>217000000</v>
+        <v>216800000</v>
       </c>
       <c r="G15">
         <v>282400000</v>
@@ -2202,20 +2316,20 @@
       </c>
     </row>
     <row r="16" spans="1:41">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
         <v>1.2</v>
       </c>
       <c r="C16">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="D16">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="E16">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="F16">
         <v>0.96</v>
@@ -2327,8 +2441,8 @@
       </c>
     </row>
     <row r="17" spans="1:41">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
         <v>1.2</v>
@@ -2452,23 +2566,23 @@
       </c>
     </row>
     <row r="18" spans="1:41">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
-        <v>222000000</v>
+        <v>222200000</v>
       </c>
       <c r="C18">
-        <v>224000000</v>
+        <v>224200000</v>
       </c>
       <c r="D18">
-        <v>225000000</v>
+        <v>225300000</v>
       </c>
       <c r="E18">
-        <v>225000000</v>
+        <v>227900000</v>
       </c>
       <c r="F18">
-        <v>225000000</v>
+        <v>224900000</v>
       </c>
       <c r="G18">
         <v>228600000</v>
@@ -2577,8 +2691,8 @@
       </c>
     </row>
     <row r="19" spans="1:41">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
         <v>223000000</v>
@@ -2587,13 +2701,13 @@
         <v>225000000</v>
       </c>
       <c r="D19">
-        <v>226000000</v>
+        <v>226400000</v>
       </c>
       <c r="E19">
-        <v>226000000</v>
+        <v>229000000</v>
       </c>
       <c r="F19">
-        <v>226000000</v>
+        <v>225800000</v>
       </c>
       <c r="G19">
         <v>229500000</v>
@@ -2702,23 +2816,23 @@
       </c>
     </row>
     <row r="20" spans="1:41">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
         <v>0.299</v>
       </c>
       <c r="C20">
-        <v>0.3144</v>
+        <v>0.3143</v>
       </c>
       <c r="D20">
         <v>0.3394</v>
       </c>
       <c r="E20">
-        <v>0.3026</v>
+        <v>0.3023</v>
       </c>
       <c r="F20">
-        <v>0.2756</v>
+        <v>0.2752</v>
       </c>
       <c r="G20">
         <v>0.2939</v>
@@ -2827,8 +2941,8 @@
       </c>
     </row>
     <row r="21" spans="1:41">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
         <v>0.0549</v>
@@ -2952,23 +3066,23 @@
       </c>
     </row>
     <row r="22" spans="1:41">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
-        <v>0.0501</v>
+        <v>0.0502</v>
       </c>
       <c r="C22">
-        <v>0.0702</v>
+        <v>0.0701</v>
       </c>
       <c r="D22">
-        <v>0.1011</v>
+        <v>0.101</v>
       </c>
       <c r="E22">
         <v>0.07049999999999999</v>
       </c>
       <c r="F22">
-        <v>0.0432</v>
+        <v>0.0431</v>
       </c>
       <c r="G22">
         <v>0.0582</v>
@@ -3077,8 +3191,8 @@
       </c>
     </row>
     <row r="23" spans="1:41">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
         <v>0.0385</v>
@@ -3087,7 +3201,7 @@
         <v>0.0532</v>
       </c>
       <c r="D23">
-        <v>0.0776</v>
+        <v>0.07770000000000001</v>
       </c>
       <c r="E23">
         <v>0.0641</v>
@@ -3202,23 +3316,23 @@
       </c>
     </row>
     <row r="24" spans="1:41">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
-        <v>570000000</v>
+        <v>571399900</v>
       </c>
       <c r="C24">
-        <v>699000000</v>
+        <v>700100300</v>
       </c>
       <c r="D24">
-        <v>920000000</v>
+        <v>921500000</v>
       </c>
       <c r="E24">
-        <v>783000000</v>
+        <v>771498400</v>
       </c>
       <c r="F24">
-        <v>501000000</v>
+        <v>490600000</v>
       </c>
       <c r="G24">
         <v>580000200</v>
@@ -3327,8 +3441,8 @@
       </c>
     </row>
     <row r="25" spans="1:41">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
         <v>381299800</v>
@@ -3452,8 +3566,8 @@
       </c>
     </row>
     <row r="26" spans="1:41">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
         <v>266900000</v>
@@ -3577,23 +3691,23 @@
       </c>
     </row>
     <row r="27" spans="1:41">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
-        <v>267000000</v>
+        <v>266900000</v>
       </c>
       <c r="C27">
-        <v>360000000</v>
+        <v>359900000</v>
       </c>
       <c r="D27">
-        <v>536000000</v>
+        <v>536400000</v>
       </c>
       <c r="E27">
-        <v>454000000</v>
+        <v>454200000</v>
       </c>
       <c r="F27">
-        <v>217000000</v>
+        <v>216800000</v>
       </c>
       <c r="G27">
         <v>282400000</v>
@@ -3702,8 +3816,8 @@
       </c>
     </row>
     <row r="28" spans="1:41">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
         <v>1.2012</v>
@@ -3827,8 +3941,8 @@
       </c>
     </row>
     <row r="29" spans="1:41">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
         <v>1.1969</v>
@@ -3952,8 +4066,8 @@
       </c>
     </row>
     <row r="30" spans="1:41">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
         <v>1.2012</v>
@@ -4077,8 +4191,8 @@
       </c>
     </row>
     <row r="31" spans="1:41">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
         <v>1.1969</v>
@@ -4202,8 +4316,8 @@
       </c>
     </row>
     <row r="32" spans="1:41">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
         <v>223000000</v>
@@ -4327,23 +4441,23 @@
       </c>
     </row>
     <row r="33" spans="1:41">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
-        <v>0.08210000000000001</v>
+        <v>0.0823</v>
       </c>
       <c r="C33">
-        <v>0.1033</v>
+        <v>0.1034</v>
       </c>
       <c r="D33">
-        <v>0.1333</v>
+        <v>0.1335</v>
       </c>
       <c r="E33">
-        <v>0.1106</v>
+        <v>0.109</v>
       </c>
       <c r="F33">
-        <v>0.0781</v>
+        <v>0.0764</v>
       </c>
       <c r="G33">
         <v>0.0914</v>
@@ -4452,8 +4566,8 @@
       </c>
     </row>
     <row r="34" spans="1:41">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
         <v>0.0308</v>
